--- a/results/I3_N5_M2_T30_C150_DepCentral_s0_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1837.164576415864</v>
+        <v>343.2572574679347</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.18908287451453</v>
+        <v>19.25725746793464</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.723273752836288</v>
+        <v>3.836925852814985</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.568767294178761</v>
+        <v>3.836925852814985</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1714.960000000007</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.17</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>13.77588400245558</v>
       </c>
     </row>
     <row r="4">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.7338617375427</v>
+        <v>22.37739353073907</v>
       </c>
     </row>
     <row r="7">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.15481196420991</v>
+        <v>27.72327375283629</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.72327375283629</v>
+        <v>24.79834375740629</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,85 +1057,15 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>161.205</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.905</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>173.01</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>162.905</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>173.59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>272.6050000000008</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>285.9700000000008</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>289.7250000000008</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>288.1150000000008</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>296.2200000000008</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>93.02999999999935</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>87.77499999999934</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>97.16999999999935</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>85.99499999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.73999999999934</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>178.7449999999998</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>177.15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>192.9199999999998</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>191.15</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>184.8799999999998</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.22999999999979</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.22999999999978</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27499999999978</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40499999999977</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.38999999999977</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>178.7449999999998</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>177.15</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>192.9199999999998</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>191.15</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>184.8799999999998</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>272.6050000000008</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>285.9700000000008</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>289.7250000000008</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>288.1150000000008</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>296.2200000000008</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>28.74499999999977</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>42.91999999999977</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>41.15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>34.8799999999998</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>122.6050000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>135.9700000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>139.7250000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>138.1150000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>146.2200000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1915,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2025,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,7 +2040,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,7 +2051,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2132,7 +2062,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2143,7 +2073,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2154,122 +2084,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
